--- a/report/timing.xlsx
+++ b/report/timing.xlsx
@@ -37,22 +37,22 @@
     <t xml:space="preserve">ratio</t>
   </si>
   <si>
-    <t xml:space="preserve">fpga_valid cycle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fpga_busy cycle</t>
+    <t xml:space="preserve">set cycle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valid cycle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">busy cycle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valid time</t>
   </si>
   <si>
     <t xml:space="preserve">software ans1</t>
   </si>
   <si>
     <t xml:space="preserve">software ans2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ncverilog ans1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ncverilog ans2</t>
   </si>
   <si>
     <t xml:space="preserve">fpga ans1</t>
@@ -92,12 +92,18 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -134,8 +140,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -159,16 +169,18 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.0888888888889"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.5222222222222"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.6259259259259"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.437037037037"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.33703703703704"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7851851851852"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.7074074074074"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.97037037037037"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.45925925925926"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.38148148148148"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.7666666666667"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -219,9 +231,41 @@
       <c r="B2" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="E2" s="0" t="e">
+      <c r="C2" s="0" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <f aca="false">8620*10^-9</f>
+        <v>8.62E-006</v>
+      </c>
+      <c r="E2" s="0" t="n">
         <f aca="false">C2/D2</f>
-        <v>#DIV/0!</v>
+        <v>232.018561484919</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>1023</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>203</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>203</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <f aca="false">G2*20*10^-9</f>
+        <v>4.06E-006</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>232</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>232</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -231,9 +275,41 @@
       <c r="B3" s="0" t="n">
         <v>256</v>
       </c>
-      <c r="E3" s="0" t="e">
+      <c r="C3" s="0" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <f aca="false">46680*10^-9</f>
+        <v>4.668E-005</v>
+      </c>
+      <c r="E3" s="0" t="n">
         <f aca="false">C3/D3</f>
-        <v>#DIV/0!</v>
+        <v>149.957155098543</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1023</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>1142</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>1142</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <f aca="false">G3*20*10^-9</f>
+        <v>2.284E-005</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>803</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>309</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>803</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>309</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -243,9 +319,41 @@
       <c r="B4" s="0" t="n">
         <v>512</v>
       </c>
-      <c r="E4" s="0" t="e">
+      <c r="C4" s="0" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <f aca="false">175300*10^-9</f>
+        <v>0.0001753</v>
+      </c>
+      <c r="E4" s="0" t="n">
         <f aca="false">C4/D4</f>
-        <v>#DIV/0!</v>
+        <v>74.1585852823731</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1023</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>2292</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>2292</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <f aca="false">G4*20*10^-9</f>
+        <v>4.584E-005</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>1539</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>579</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>1539</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>579</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -255,9 +363,41 @@
       <c r="B5" s="0" t="n">
         <v>1024</v>
       </c>
-      <c r="E5" s="0" t="e">
+      <c r="C5" s="0" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <f aca="false">677080*10^-9</f>
+        <v>0.00067708</v>
+      </c>
+      <c r="E5" s="0" t="n">
         <f aca="false">C5/D5</f>
-        <v>#DIV/0!</v>
+        <v>53.1694925267324</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>1023</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>16847</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>16847</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <f aca="false">G5*20*10^-9</f>
+        <v>0.00033694</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>3206</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>1209</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>3206</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>1209</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -267,9 +407,41 @@
       <c r="B6" s="0" t="n">
         <v>1024</v>
       </c>
-      <c r="E6" s="0" t="e">
+      <c r="C6" s="0" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <f aca="false">1333080*10^-9</f>
+        <v>0.00133308</v>
+      </c>
+      <c r="E6" s="0" t="n">
         <f aca="false">C6/D6</f>
-        <v>#DIV/0!</v>
+        <v>48.0091217331293</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1023</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>33247</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>33247</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <f aca="false">G6*20*10^-9</f>
+        <v>0.00066494</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>3817</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>1602</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>3817</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>1602</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -279,9 +451,41 @@
       <c r="B7" s="0" t="n">
         <v>1024</v>
       </c>
-      <c r="E7" s="0" t="e">
+      <c r="C7" s="0" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <f aca="false">2645080*10^-9</f>
+        <v>0.00264508</v>
+      </c>
+      <c r="E7" s="0" t="n">
         <f aca="false">C7/D7</f>
-        <v>#DIV/0!</v>
+        <v>45.36724787152</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1023</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>66047</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>66047</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <f aca="false">G7*20*10^-9</f>
+        <v>0.00132094</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>3907</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>1575</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>3907</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>1575</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -291,9 +495,41 @@
       <c r="B8" s="0" t="n">
         <v>1024</v>
       </c>
-      <c r="E8" s="0" t="e">
+      <c r="C8" s="0" t="n">
+        <v>0.223</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <f aca="false">5269080*10^-9</f>
+        <v>0.00526908</v>
+      </c>
+      <c r="E8" s="0" t="n">
         <f aca="false">C8/D8</f>
-        <v>#DIV/0!</v>
+        <v>42.3223788593075</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>1023</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>131647</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>131647</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <f aca="false">G8*20*10^-9</f>
+        <v>0.00263294</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>3859</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>1602</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>3859</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>1602</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -303,9 +539,41 @@
       <c r="B9" s="0" t="n">
         <v>1024</v>
       </c>
-      <c r="E9" s="0" t="e">
+      <c r="C9" s="0" t="n">
+        <v>0.421</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <f aca="false">10517080*10^-9</f>
+        <v>0.01051708</v>
+      </c>
+      <c r="E9" s="0" t="n">
         <f aca="false">C9/D9</f>
-        <v>#DIV/0!</v>
+        <v>40.0301224294196</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1023</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>262847</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>262847</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <f aca="false">G9*20*10^-9</f>
+        <v>0.00525694</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>4587</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>2130</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>4587</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>2130</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -315,9 +583,41 @@
       <c r="B10" s="0" t="n">
         <v>7168</v>
       </c>
-      <c r="E10" s="0" t="e">
+      <c r="C10" s="0" t="n">
+        <v>2.726</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <f aca="false">73544220*10^-9</f>
+        <v>0.07354422</v>
+      </c>
+      <c r="E10" s="0" t="n">
         <f aca="false">C10/D10</f>
-        <v>#DIV/0!</v>
+        <v>37.0661351769044</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>1023</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>1834497</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>1834497</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <f aca="false">G10*20*10^-9</f>
+        <v>0.03668994</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>31529</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>14636</v>
+      </c>
+      <c r="L10" s="1" t="n">
+        <v>31459</v>
+      </c>
+      <c r="M10" s="1" t="n">
+        <v>14602</v>
       </c>
     </row>
   </sheetData>

--- a/report/timing.xlsx
+++ b/report/timing.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">S</t>
   </si>
@@ -62,7 +62,10 @@
     <t xml:space="preserve">fpga ans2</t>
   </si>
   <si>
-    <t xml:space="preserve">cycle(ns)</t>
+    <t xml:space="preserve">Syn cycle(ns)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">post simulation cycle</t>
   </si>
   <si>
     <t xml:space="preserve">area</t>
@@ -652,20 +655,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.7962962962963"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5444444444444"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.3444444444444"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.662962962963"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.7185185185185"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.7962962962963"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.5444444444444"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.3444444444444"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>13</v>
       </c>
@@ -680,6 +685,9 @@
       </c>
       <c r="E1" s="0" t="s">
         <v>17</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -687,18 +695,53 @@
         <v>5</v>
       </c>
       <c r="B2" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" s="0" t="n">
         <v>3548652.958273</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <f aca="false">B2*A2</f>
+      <c r="D2" s="0" t="n">
+        <f aca="false">C2*B2</f>
         <v>17743264.791365</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="E2" s="0" t="n">
         <v>82.3444</v>
       </c>
-      <c r="E2" s="0" t="n">
-        <f aca="false">40.0301224294*20/A2</f>
-        <v>160.1204897176</v>
+      <c r="F2" s="0" t="n">
+        <f aca="false">40.30012*20/B2</f>
+        <v>161.20048</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>3654453.598481</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <f aca="false">C3*B3</f>
+        <v>17358654.5927848</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>89.3567</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <f aca="false">40.30012*20/B3</f>
+        <v>169.684715789474</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D4" s="0" t="n">
+        <f aca="false">C4*B4</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="0" t="e">
+        <f aca="false">40.30012*20/B4</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>

--- a/report/timing.xlsx
+++ b/report/timing.xlsx
@@ -193,13 +193,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3074074074074"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.0111111111111"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.40740740740741"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.46666666666667"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.0333333333333"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.87777777777778"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.4444444444444"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.3259259259259"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.1111111111111"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.95555555555556"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.01481481481481"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.662962962963"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.5037037037037"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.2296296296296"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -658,16 +658,16 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.662962962963"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.7185185185185"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.7962962962963"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.5444444444444"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.3444444444444"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4666666666667"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.8148148148148"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.8925925925926"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3259259259259"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.5222222222222"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -735,13 +735,25 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>3681995.612675</v>
+      </c>
       <c r="D4" s="0" t="n">
         <f aca="false">C4*B4</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="0" t="e">
+        <v>16973999.7744318</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>93.493</v>
+      </c>
+      <c r="F4" s="0" t="n">
         <f aca="false">40.30012*20/B4</f>
-        <v>#DIV/0!</v>
+        <v>174.837830802603</v>
       </c>
     </row>
   </sheetData>
